--- a/graphs_caseB.xlsx
+++ b/graphs_caseB.xlsx
@@ -29,90 +29,510 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="28">
-  <si>
-    <t>[nan-nan]</t>
-  </si>
-  <si>
-    <t>[83.94-84.0]</t>
-  </si>
-  <si>
-    <t>[84.0-84.06]</t>
-  </si>
-  <si>
-    <t>[84.06-84.12]</t>
-  </si>
-  <si>
-    <t>[84.12-84.18]</t>
-  </si>
-  <si>
-    <t>[84.18-84.24]</t>
-  </si>
-  <si>
-    <t>[84.24-84.3]</t>
-  </si>
-  <si>
-    <t>[84.3-84.36]</t>
-  </si>
-  <si>
-    <t>[84.36-84.42]</t>
-  </si>
-  <si>
-    <t>[84.42-84.48]</t>
-  </si>
-  <si>
-    <t>[84.48-84.54]</t>
-  </si>
-  <si>
-    <t>[84.54-84.59]</t>
-  </si>
-  <si>
-    <t>[84.59-84.65]</t>
-  </si>
-  <si>
-    <t>[84.65-84.71]</t>
-  </si>
-  <si>
-    <t>[84.71-84.77]</t>
-  </si>
-  <si>
-    <t>[84.73-84.74]</t>
-  </si>
-  <si>
-    <t>[84.74-84.74]</t>
-  </si>
-  <si>
-    <t>[84.74-84.75]</t>
-  </si>
-  <si>
-    <t>[84.75-84.75]</t>
-  </si>
-  <si>
-    <t>[83.94-83.94]</t>
-  </si>
-  <si>
-    <t>[83.94-83.95]</t>
-  </si>
-  <si>
-    <t>[83.95-83.95]</t>
-  </si>
-  <si>
-    <t>[83.95-83.96]</t>
-  </si>
-  <si>
-    <t>[83.96-83.96]</t>
-  </si>
-  <si>
-    <t>[84.75-84.76]</t>
-  </si>
-  <si>
-    <t>[84.76-84.76]</t>
-  </si>
-  <si>
-    <t>[84.76-84.77]</t>
-  </si>
-  <si>
-    <t>[84.77-84.77]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+  <si>
+    <t>[3.567-3.592]</t>
+  </si>
+  <si>
+    <t>[3.592-3.616]</t>
+  </si>
+  <si>
+    <t>[3.616-3.641]</t>
+  </si>
+  <si>
+    <t>[3.641-3.666]</t>
+  </si>
+  <si>
+    <t>[3.666-3.691]</t>
+  </si>
+  <si>
+    <t>[3.691-3.716]</t>
+  </si>
+  <si>
+    <t>[3.716-3.74]</t>
+  </si>
+  <si>
+    <t>[3.74-3.765]</t>
+  </si>
+  <si>
+    <t>[3.765-3.79]</t>
+  </si>
+  <si>
+    <t>[3.79-3.815]</t>
+  </si>
+  <si>
+    <t>[3.815-3.84]</t>
+  </si>
+  <si>
+    <t>[3.84-3.864]</t>
+  </si>
+  <si>
+    <t>[3.864-3.889]</t>
+  </si>
+  <si>
+    <t>[3.889-3.914]</t>
+  </si>
+  <si>
+    <t>[3.577-3.591]</t>
+  </si>
+  <si>
+    <t>[3.591-3.605]</t>
+  </si>
+  <si>
+    <t>[3.605-3.62]</t>
+  </si>
+  <si>
+    <t>[3.62-3.634]</t>
+  </si>
+  <si>
+    <t>[3.634-3.649]</t>
+  </si>
+  <si>
+    <t>[3.649-3.663]</t>
+  </si>
+  <si>
+    <t>[3.663-3.677]</t>
+  </si>
+  <si>
+    <t>[3.677-3.692]</t>
+  </si>
+  <si>
+    <t>[3.692-3.706]</t>
+  </si>
+  <si>
+    <t>[3.706-3.721]</t>
+  </si>
+  <si>
+    <t>[3.721-3.735]</t>
+  </si>
+  <si>
+    <t>[3.735-3.749]</t>
+  </si>
+  <si>
+    <t>[3.749-3.764]</t>
+  </si>
+  <si>
+    <t>[3.764-3.778]</t>
+  </si>
+  <si>
+    <t>[3.66-3.678]</t>
+  </si>
+  <si>
+    <t>[3.678-3.696]</t>
+  </si>
+  <si>
+    <t>[3.696-3.714]</t>
+  </si>
+  <si>
+    <t>[3.714-3.732]</t>
+  </si>
+  <si>
+    <t>[3.732-3.75]</t>
+  </si>
+  <si>
+    <t>[3.75-3.769]</t>
+  </si>
+  <si>
+    <t>[3.769-3.787]</t>
+  </si>
+  <si>
+    <t>[3.787-3.805]</t>
+  </si>
+  <si>
+    <t>[3.805-3.823]</t>
+  </si>
+  <si>
+    <t>[3.823-3.841]</t>
+  </si>
+  <si>
+    <t>[3.841-3.859]</t>
+  </si>
+  <si>
+    <t>[3.859-3.878]</t>
+  </si>
+  <si>
+    <t>[3.878-3.896]</t>
+  </si>
+  <si>
+    <t>[3.896-3.914]</t>
+  </si>
+  <si>
+    <t>[3.567-3.581]</t>
+  </si>
+  <si>
+    <t>[3.581-3.594]</t>
+  </si>
+  <si>
+    <t>[3.594-3.608]</t>
+  </si>
+  <si>
+    <t>[3.608-3.621]</t>
+  </si>
+  <si>
+    <t>[3.621-3.635]</t>
+  </si>
+  <si>
+    <t>[3.635-3.648]</t>
+  </si>
+  <si>
+    <t>[3.648-3.662]</t>
+  </si>
+  <si>
+    <t>[3.662-3.676]</t>
+  </si>
+  <si>
+    <t>[3.676-3.689]</t>
+  </si>
+  <si>
+    <t>[3.689-3.703]</t>
+  </si>
+  <si>
+    <t>[3.703-3.716]</t>
+  </si>
+  <si>
+    <t>[3.716-3.73]</t>
+  </si>
+  <si>
+    <t>[3.73-3.744]</t>
+  </si>
+  <si>
+    <t>[3.744-3.757]</t>
+  </si>
+  <si>
+    <t>[10.72-10.87]</t>
+  </si>
+  <si>
+    <t>[10.87-11.02]</t>
+  </si>
+  <si>
+    <t>[11.02-11.17]</t>
+  </si>
+  <si>
+    <t>[11.17-11.32]</t>
+  </si>
+  <si>
+    <t>[11.32-11.47]</t>
+  </si>
+  <si>
+    <t>[11.47-11.61]</t>
+  </si>
+  <si>
+    <t>[11.61-11.76]</t>
+  </si>
+  <si>
+    <t>[11.76-11.91]</t>
+  </si>
+  <si>
+    <t>[11.91-12.06]</t>
+  </si>
+  <si>
+    <t>[12.06-12.21]</t>
+  </si>
+  <si>
+    <t>[12.21-12.36]</t>
+  </si>
+  <si>
+    <t>[12.36-12.51]</t>
+  </si>
+  <si>
+    <t>[12.51-12.65]</t>
+  </si>
+  <si>
+    <t>[12.65-12.8]</t>
+  </si>
+  <si>
+    <t>[11.55-11.63]</t>
+  </si>
+  <si>
+    <t>[11.63-11.72]</t>
+  </si>
+  <si>
+    <t>[11.72-11.81]</t>
+  </si>
+  <si>
+    <t>[11.81-11.89]</t>
+  </si>
+  <si>
+    <t>[11.89-11.98]</t>
+  </si>
+  <si>
+    <t>[11.98-12.06]</t>
+  </si>
+  <si>
+    <t>[12.06-12.15]</t>
+  </si>
+  <si>
+    <t>[12.15-12.23]</t>
+  </si>
+  <si>
+    <t>[12.23-12.32]</t>
+  </si>
+  <si>
+    <t>[12.32-12.41]</t>
+  </si>
+  <si>
+    <t>[12.41-12.49]</t>
+  </si>
+  <si>
+    <t>[12.49-12.58]</t>
+  </si>
+  <si>
+    <t>[12.58-12.66]</t>
+  </si>
+  <si>
+    <t>[12.66-12.75]</t>
+  </si>
+  <si>
+    <t>[10.72-10.83]</t>
+  </si>
+  <si>
+    <t>[10.83-10.94]</t>
+  </si>
+  <si>
+    <t>[10.94-11.05]</t>
+  </si>
+  <si>
+    <t>[11.05-11.16]</t>
+  </si>
+  <si>
+    <t>[11.16-11.26]</t>
+  </si>
+  <si>
+    <t>[11.26-11.37]</t>
+  </si>
+  <si>
+    <t>[11.37-11.48]</t>
+  </si>
+  <si>
+    <t>[11.48-11.59]</t>
+  </si>
+  <si>
+    <t>[11.59-11.7]</t>
+  </si>
+  <si>
+    <t>[11.7-11.81]</t>
+  </si>
+  <si>
+    <t>[11.81-11.91]</t>
+  </si>
+  <si>
+    <t>[11.91-12.02]</t>
+  </si>
+  <si>
+    <t>[12.02-12.13]</t>
+  </si>
+  <si>
+    <t>[12.13-12.24]</t>
+  </si>
+  <si>
+    <t>[11.67-11.75]</t>
+  </si>
+  <si>
+    <t>[11.75-11.83]</t>
+  </si>
+  <si>
+    <t>[11.83-11.91]</t>
+  </si>
+  <si>
+    <t>[11.91-12.0]</t>
+  </si>
+  <si>
+    <t>[12.0-12.08]</t>
+  </si>
+  <si>
+    <t>[12.08-12.16]</t>
+  </si>
+  <si>
+    <t>[12.16-12.24]</t>
+  </si>
+  <si>
+    <t>[12.24-12.32]</t>
+  </si>
+  <si>
+    <t>[12.32-12.4]</t>
+  </si>
+  <si>
+    <t>[12.4-12.48]</t>
+  </si>
+  <si>
+    <t>[12.48-12.56]</t>
+  </si>
+  <si>
+    <t>[12.56-12.64]</t>
+  </si>
+  <si>
+    <t>[12.64-12.72]</t>
+  </si>
+  <si>
+    <t>[12.72-12.8]</t>
+  </si>
+  <si>
+    <t>[83.26-83.4]</t>
+  </si>
+  <si>
+    <t>[83.4-83.55]</t>
+  </si>
+  <si>
+    <t>[83.55-83.69]</t>
+  </si>
+  <si>
+    <t>[83.69-83.83]</t>
+  </si>
+  <si>
+    <t>[83.83-83.98]</t>
+  </si>
+  <si>
+    <t>[83.98-84.12]</t>
+  </si>
+  <si>
+    <t>[84.12-84.27]</t>
+  </si>
+  <si>
+    <t>[84.27-84.41]</t>
+  </si>
+  <si>
+    <t>[84.41-84.55]</t>
+  </si>
+  <si>
+    <t>[84.55-84.7]</t>
+  </si>
+  <si>
+    <t>[84.7-84.84]</t>
+  </si>
+  <si>
+    <t>[84.84-84.99]</t>
+  </si>
+  <si>
+    <t>[84.99-85.13]</t>
+  </si>
+  <si>
+    <t>[85.13-85.28]</t>
+  </si>
+  <si>
+    <t>[83.74-83.84]</t>
+  </si>
+  <si>
+    <t>[83.84-83.94]</t>
+  </si>
+  <si>
+    <t>[83.94-84.04]</t>
+  </si>
+  <si>
+    <t>[84.04-84.14]</t>
+  </si>
+  <si>
+    <t>[84.14-84.24]</t>
+  </si>
+  <si>
+    <t>[84.24-84.34]</t>
+  </si>
+  <si>
+    <t>[84.34-84.44]</t>
+  </si>
+  <si>
+    <t>[84.44-84.54]</t>
+  </si>
+  <si>
+    <t>[84.54-84.64]</t>
+  </si>
+  <si>
+    <t>[84.64-84.74]</t>
+  </si>
+  <si>
+    <t>[84.74-84.83]</t>
+  </si>
+  <si>
+    <t>[84.83-84.93]</t>
+  </si>
+  <si>
+    <t>[84.93-85.03]</t>
+  </si>
+  <si>
+    <t>[85.03-85.13]</t>
+  </si>
+  <si>
+    <t>[83.26-83.38]</t>
+  </si>
+  <si>
+    <t>[83.38-83.51]</t>
+  </si>
+  <si>
+    <t>[83.51-83.64]</t>
+  </si>
+  <si>
+    <t>[83.64-83.77]</t>
+  </si>
+  <si>
+    <t>[83.77-83.89]</t>
+  </si>
+  <si>
+    <t>[83.89-84.02]</t>
+  </si>
+  <si>
+    <t>[84.02-84.15]</t>
+  </si>
+  <si>
+    <t>[84.15-84.28]</t>
+  </si>
+  <si>
+    <t>[84.28-84.4]</t>
+  </si>
+  <si>
+    <t>[84.4-84.53]</t>
+  </si>
+  <si>
+    <t>[84.53-84.66]</t>
+  </si>
+  <si>
+    <t>[84.66-84.79]</t>
+  </si>
+  <si>
+    <t>[84.79-84.91]</t>
+  </si>
+  <si>
+    <t>[84.91-85.04]</t>
+  </si>
+  <si>
+    <t>[83.69-83.8]</t>
+  </si>
+  <si>
+    <t>[83.8-83.91]</t>
+  </si>
+  <si>
+    <t>[83.91-84.03]</t>
+  </si>
+  <si>
+    <t>[84.03-84.14]</t>
+  </si>
+  <si>
+    <t>[84.14-84.25]</t>
+  </si>
+  <si>
+    <t>[84.25-84.37]</t>
+  </si>
+  <si>
+    <t>[84.37-84.48]</t>
+  </si>
+  <si>
+    <t>[84.48-84.59]</t>
+  </si>
+  <si>
+    <t>[84.59-84.71]</t>
+  </si>
+  <si>
+    <t>[84.71-84.82]</t>
+  </si>
+  <si>
+    <t>[84.82-84.94]</t>
+  </si>
+  <si>
+    <t>[84.94-85.05]</t>
+  </si>
+  <si>
+    <t>[85.05-85.16]</t>
+  </si>
+  <si>
+    <t>[85.16-85.28]</t>
   </si>
 </sst>
 </file>
@@ -218,31 +638,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,31 +674,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,46 +825,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.55-11.63]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.63-11.72]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.72-11.81]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.81-11.89]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.89-11.98]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.98-12.06]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.06-12.15]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.15-12.23]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.23-12.32]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.32-12.41]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.41-12.49]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.49-12.58]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.58-12.66]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.66-12.75]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -456,43 +876,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -632,46 +1052,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[10.72-10.83]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[10.83-10.94]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[10.94-11.05]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.05-11.16]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.16-11.26]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.26-11.37]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.37-11.48]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.48-11.59]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.59-11.7]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.7-11.81]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.81-11.91]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.91-12.02]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.02-12.13]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.13-12.24]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -683,46 +1103,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -859,46 +1279,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.67-11.75]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.75-11.83]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.83-11.91]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.91-12.0]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.0-12.08]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.08-12.16]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.16-12.24]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.24-12.32]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.32-12.4]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.4-12.48]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.48-12.56]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.56-12.64]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.64-12.72]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.72-12.8]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -910,46 +1330,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,46 +1506,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.94-84.0]</c:v>
+                  <c:v>[83.26-83.4]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.0-84.06]</c:v>
+                  <c:v>[83.4-83.55]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.06-84.12]</c:v>
+                  <c:v>[83.55-83.69]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.12-84.18]</c:v>
+                  <c:v>[83.69-83.83]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.18-84.24]</c:v>
+                  <c:v>[83.83-83.98]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.24-84.3]</c:v>
+                  <c:v>[83.98-84.12]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.3-84.36]</c:v>
+                  <c:v>[84.12-84.27]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.36-84.42]</c:v>
+                  <c:v>[84.27-84.41]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.42-84.48]</c:v>
+                  <c:v>[84.41-84.55]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.48-84.54]</c:v>
+                  <c:v>[84.55-84.7]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.54-84.59]</c:v>
+                  <c:v>[84.7-84.84]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.59-84.65]</c:v>
+                  <c:v>[84.84-84.99]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.65-84.71]</c:v>
+                  <c:v>[84.99-85.13]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.71-84.77]</c:v>
+                  <c:v>[85.13-85.28]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1137,46 +1557,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,46 +1733,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.73-84.74]</c:v>
+                  <c:v>[83.74-83.84]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.74-84.74]</c:v>
+                  <c:v>[83.84-83.94]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.74-84.74]</c:v>
+                  <c:v>[83.94-84.04]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.74-84.74]</c:v>
+                  <c:v>[84.04-84.14]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.74-84.74]</c:v>
+                  <c:v>[84.14-84.24]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.74-84.74]</c:v>
+                  <c:v>[84.24-84.34]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.74-84.74]</c:v>
+                  <c:v>[84.34-84.44]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.74-84.75]</c:v>
+                  <c:v>[84.44-84.54]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[84.54-84.64]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[84.64-84.74]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[84.74-84.83]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[84.83-84.93]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[84.93-85.03]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[85.03-85.13]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1364,46 +1784,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1540,46 +1960,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[83.94-83.94]</c:v>
+                  <c:v>[83.26-83.38]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[83.94-83.94]</c:v>
+                  <c:v>[83.38-83.51]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[83.94-83.94]</c:v>
+                  <c:v>[83.51-83.64]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[83.94-83.94]</c:v>
+                  <c:v>[83.64-83.77]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[83.94-83.95]</c:v>
+                  <c:v>[83.77-83.89]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[83.95-83.95]</c:v>
+                  <c:v>[83.89-84.02]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[83.95-83.95]</c:v>
+                  <c:v>[84.02-84.15]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[83.95-83.95]</c:v>
+                  <c:v>[84.15-84.28]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[83.95-83.95]</c:v>
+                  <c:v>[84.28-84.4]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[83.95-83.95]</c:v>
+                  <c:v>[84.4-84.53]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[83.95-83.95]</c:v>
+                  <c:v>[84.53-84.66]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[83.95-83.96]</c:v>
+                  <c:v>[84.66-84.79]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[83.96-83.96]</c:v>
+                  <c:v>[84.79-84.91]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[83.96-83.96]</c:v>
+                  <c:v>[84.91-85.04]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1591,46 +2011,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,46 +2187,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[84.75-84.75]</c:v>
+                  <c:v>[83.69-83.8]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[84.75-84.76]</c:v>
+                  <c:v>[83.8-83.91]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[84.76-84.76]</c:v>
+                  <c:v>[83.91-84.03]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[84.76-84.76]</c:v>
+                  <c:v>[84.03-84.14]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[84.76-84.76]</c:v>
+                  <c:v>[84.14-84.25]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[84.76-84.76]</c:v>
+                  <c:v>[84.25-84.37]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[84.76-84.76]</c:v>
+                  <c:v>[84.37-84.48]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[84.76-84.76]</c:v>
+                  <c:v>[84.48-84.59]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[84.76-84.77]</c:v>
+                  <c:v>[84.59-84.71]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[84.77-84.77]</c:v>
+                  <c:v>[84.71-84.82]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[84.77-84.77]</c:v>
+                  <c:v>[84.82-84.94]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[84.77-84.77]</c:v>
+                  <c:v>[84.94-85.05]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[84.77-84.77]</c:v>
+                  <c:v>[85.05-85.16]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[84.77-84.77]</c:v>
+                  <c:v>[85.16-85.28]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1818,46 +2238,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,31 +2415,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,28 +2454,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2183,22 +2603,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>31</c:v>
@@ -2207,7 +2627,7 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,28 +2642,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2371,31 +2791,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,28 +2830,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2558,46 +2978,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.567-3.592]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.592-3.616]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.616-3.641]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.641-3.666]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.666-3.691]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.691-3.716]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.716-3.74]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.74-3.765]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.765-3.79]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.79-3.815]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.815-3.84]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.84-3.864]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.864-3.889]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.889-3.914]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2609,46 +3029,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,46 +3205,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.577-3.591]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.591-3.605]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.605-3.62]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.62-3.634]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.634-3.649]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.649-3.663]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.663-3.677]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.677-3.692]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.692-3.706]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.706-3.721]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.721-3.735]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.735-3.749]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.749-3.764]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.764-3.778]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2836,43 +3256,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3012,46 +3432,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.66-3.678]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.678-3.696]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.696-3.714]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.714-3.732]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.732-3.75]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.75-3.769]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.769-3.787]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.787-3.805]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.805-3.823]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.823-3.841]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.841-3.859]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.859-3.878]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.878-3.896]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.896-3.914]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3063,40 +3483,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3239,46 +3659,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.567-3.581]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.581-3.594]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.594-3.608]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.608-3.621]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.621-3.635]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.635-3.648]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.648-3.662]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.662-3.676]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.676-3.689]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.689-3.703]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.703-3.716]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.716-3.73]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.73-3.744]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[3.744-3.757]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3290,43 +3710,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3466,46 +3886,46 @@
               <c:strCache>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[10.72-10.87]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[10.87-11.02]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.02-11.17]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.17-11.32]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.32-11.47]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.47-11.61]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.61-11.76]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.76-11.91]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[11.91-12.06]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.06-12.21]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.21-12.36]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.36-12.51]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.51-12.65]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>[nan-nan]</c:v>
+                  <c:v>[12.65-12.8]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3517,46 +3937,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4506,50 +4926,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4557,28 +4977,28 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -4597,111 +5017,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4723,15 +5143,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4739,98 +5159,98 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4849,114 +5269,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4975,114 +5395,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5101,114 +5521,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -5227,114 +5647,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5353,114 +5773,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5899,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5487,34 +5907,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5522,36 +5942,36 @@
         <v>31</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5990,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5578,42 +5998,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5621,7 +6041,7 @@
         <v>31</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5629,20 +6049,20 @@
         <v>32</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -5661,7 +6081,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5669,71 +6089,71 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -5755,111 +6175,111 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5878,111 +6298,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6004,103 +6424,103 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6108,7 +6528,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6130,111 +6550,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6256,114 +6676,114 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
